--- a/icd_files/15128.xlsx
+++ b/icd_files/15128.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B933A4A-BE97-4810-85E6-1BBC5F1E139C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2FA69D-F76D-4F5C-B58A-C4E82307117B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="368">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -522,9 +522,15 @@
     <t>05-02</t>
   </si>
   <si>
+    <t>05-03</t>
+  </si>
+  <si>
     <t>05-04</t>
   </si>
   <si>
+    <t>05-05</t>
+  </si>
+  <si>
     <t>07-04</t>
   </si>
   <si>
@@ -558,27 +564,141 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Nadolol</t>
+  </si>
+  <si>
+    <t>Magnesium Oxide</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Erythromycin 0.5% Ophth Oint</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
     <t>Magnesium Sulfate</t>
   </si>
   <si>
-    <t>Potassium Chloride</t>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Erythromycin</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Syringe (IV Room)</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE HCl</t>
+  </si>
+  <si>
+    <t>Midazolam HCl</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Dolasetron Mesylate</t>
+  </si>
+  <si>
+    <t>Sodium Phosphate</t>
+  </si>
+  <si>
+    <t>Thiamine HCl</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Octreotide Acetate</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Sucralfate</t>
+  </si>
+  <si>
+    <t>Artificial Tears</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Simethicone</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>2.5 ml</t>
+  </si>
+  <si>
+    <t>0.6 ml</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
     <t>22:00</t>
   </si>
   <si>
+    <t>5-10 VIAL</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>30 ml</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
@@ -600,10 +720,25 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>20 CAP</t>
+  </si>
+  <si>
     <t>250 ml</t>
   </si>
   <si>
-    <t>20 CAP</t>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
   </si>
   <si>
     <t>04:00</t>
@@ -621,12 +756,66 @@
     <t>2 ml</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>4 ml</t>
   </si>
   <si>
     <t>3 ml</t>
   </si>
   <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>1-5 ml</t>
+  </si>
+  <si>
+    <t>0.5-2 VIAL</t>
+  </si>
+  <si>
+    <t>25-100 ml</t>
+  </si>
+  <si>
+    <t>20 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1-2 DBTL</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
+  </si>
+  <si>
+    <t>3 VIAL</t>
+  </si>
+  <si>
+    <t>80 VIAL</t>
+  </si>
+  <si>
+    <t>12.5 VIAL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
     <t>06:30</t>
   </si>
   <si>
@@ -639,13 +828,31 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
     <t>14:00</t>
   </si>
   <si>
+    <t>800 TAB</t>
+  </si>
+  <si>
     <t>60 CAP</t>
+  </si>
+  <si>
+    <t>0.5 TUBE</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3800,7 +4007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000000-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4702,7 +4909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000001-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5604,7 +5811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000002-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6533,7 +6740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000003-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7459,7 +7666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000004-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8076,7 +8283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000005-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8607,7 +8814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000006-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9141,7 +9348,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000007-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9672,7 +9879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000008-1CF1-4F68-A8C6-F95148CCF324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10115,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683A541F-E6CA-485F-AC54-285FBA26F86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F91C451-0339-4BD3-8034-E20B14CCC633}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -10140,7 +10347,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10153,7 +10360,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10166,7 +10373,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10179,7 +10386,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10192,27 +10399,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10240,7 +10447,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10268,11 +10475,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10295,7 +10502,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10332,7 +10539,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10355,14 +10562,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10385,14 +10592,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10415,14 +10622,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10445,14 +10652,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10475,16 +10682,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10507,14 +10714,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10537,10 +10744,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10548,7 +10755,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10560,7 +10767,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10583,7 +10790,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10599,11 +10806,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10626,7 +10833,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10644,7 +10851,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10667,7 +10874,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10686,7 +10893,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10709,10 +10916,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10730,7 +10937,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10753,52 +10960,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10821,53 +11028,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10890,43 +11097,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10934,7 +11141,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10957,43 +11164,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -11001,7 +11208,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -11024,43 +11231,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -11068,7 +11275,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -11091,43 +11298,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -11135,7 +11342,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -11158,43 +11365,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11202,7 +11409,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11225,43 +11432,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11269,7 +11476,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11292,43 +11499,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11336,7 +11543,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11359,43 +11566,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11403,7 +11610,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11426,43 +11633,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11470,7 +11677,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11493,43 +11700,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11537,7 +11744,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11560,43 +11767,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11604,7 +11811,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11627,7 +11834,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11640,10 +11847,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11651,7 +11858,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11674,14 +11881,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11696,7 +11903,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11719,7 +11926,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11739,7 +11946,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11762,7 +11969,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11782,7 +11989,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11805,7 +12012,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11823,11 +12030,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11850,14 +12057,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11880,14 +12087,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11910,14 +12117,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11940,14 +12147,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11970,14 +12177,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -12000,14 +12207,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -12030,10 +12237,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -12050,7 +12257,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -12073,7 +12280,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -12091,7 +12298,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -12114,7 +12321,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -12132,7 +12339,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -12155,14 +12362,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12185,14 +12392,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12215,24 +12422,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12255,7 +12462,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12264,7 +12471,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12287,14 +12494,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12302,7 +12509,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12325,7 +12532,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12334,7 +12541,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12357,14 +12564,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12372,7 +12579,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12395,7 +12602,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12404,7 +12611,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12427,24 +12634,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12467,7 +12674,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12476,7 +12683,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12499,22 +12706,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12522,7 +12729,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12545,7 +12752,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12558,7 +12765,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12581,32 +12788,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12629,7 +12836,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12638,7 +12845,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12661,14 +12868,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12676,7 +12883,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12699,14 +12906,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12729,12 +12936,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12762,7 +12969,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12789,13 +12996,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12823,7 +13030,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12935,7 +13142,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12963,7 +13170,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12991,7 +13198,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -16517,13 +16724,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:CD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -16531,7 +16738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
@@ -16542,7 +16749,7 @@
         <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>159</v>
@@ -16569,7 +16776,7 @@
         <v>159</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>160</v>
@@ -16590,13 +16797,13 @@
         <v>160</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>161</v>
@@ -16608,70 +16815,70 @@
         <v>161</v>
       </c>
       <c r="AA31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="AW31" s="1" t="s">
         <v>169</v>
@@ -16683,249 +16890,402 @@
         <v>169</v>
       </c>
       <c r="AZ31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="CC31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="N32" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Q32" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="S32" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="T32" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="U32" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="V32" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="W32" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="X32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AA32" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="AB32" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="AC32" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="AD32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AE32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AG32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AH32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AI32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AJ32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AK32" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AL32" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AO32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AP32" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AQ32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AR32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AS32" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AT32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AU32" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AV32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AW32" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AX32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AY32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AZ32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BA32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BB32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BC32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BD32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>272</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>272</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35">
+        <v>179</v>
+      </c>
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
       </c>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
         <v>14</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
       </c>
       <c r="M35">
         <v>15</v>
       </c>
       <c r="N35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O35">
         <v>14</v>
       </c>
       <c r="P35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q35">
         <v>14</v>
       </c>
       <c r="R35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S35">
         <v>15</v>
       </c>
       <c r="T35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U35">
         <v>15</v>
@@ -16945,46 +17305,13 @@
       <c r="Z35">
         <v>15</v>
       </c>
-      <c r="AG35">
+      <c r="AA35">
         <v>15</v>
       </c>
-      <c r="AH35">
+      <c r="AB35">
         <v>15</v>
       </c>
-      <c r="AI35">
-        <v>15</v>
-      </c>
-      <c r="AJ35">
-        <v>15</v>
-      </c>
-      <c r="AK35">
-        <v>15</v>
-      </c>
-      <c r="AL35">
-        <v>15</v>
-      </c>
-      <c r="AM35">
-        <v>15</v>
-      </c>
-      <c r="AN35">
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <v>15</v>
-      </c>
-      <c r="AP35">
-        <v>15</v>
-      </c>
-      <c r="AR35">
-        <v>15</v>
-      </c>
-      <c r="AS35">
-        <v>15</v>
-      </c>
-      <c r="AT35">
-        <v>15</v>
-      </c>
-      <c r="AU35">
+      <c r="AC35">
         <v>15</v>
       </c>
       <c r="AW35">
@@ -16996,128 +17323,1398 @@
       <c r="AY35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="AZ35">
+        <v>15</v>
+      </c>
+      <c r="BA35">
+        <v>15</v>
+      </c>
+      <c r="BB35">
+        <v>15</v>
+      </c>
+      <c r="BC35">
+        <v>15</v>
+      </c>
+      <c r="BD35">
+        <v>15</v>
+      </c>
+      <c r="BE35">
+        <v>15</v>
+      </c>
+      <c r="BF35">
+        <v>15</v>
+      </c>
+      <c r="BG35">
+        <v>15</v>
+      </c>
+      <c r="BH35">
+        <v>15</v>
+      </c>
+      <c r="BI35">
+        <v>15</v>
+      </c>
+      <c r="BJ35">
+        <v>15</v>
+      </c>
+      <c r="BK35">
+        <v>15</v>
+      </c>
+      <c r="BL35">
+        <v>15</v>
+      </c>
+      <c r="BM35">
+        <v>15</v>
+      </c>
+      <c r="BN35">
+        <v>15</v>
+      </c>
+      <c r="BO35">
+        <v>15</v>
+      </c>
+      <c r="BQ35">
+        <v>15</v>
+      </c>
+      <c r="BR35">
+        <v>15</v>
+      </c>
+      <c r="BS35">
+        <v>15</v>
+      </c>
+      <c r="BT35">
+        <v>15</v>
+      </c>
+      <c r="BW35">
+        <v>15</v>
+      </c>
+      <c r="BX35">
+        <v>15</v>
+      </c>
+      <c r="BY35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>238</v>
+      </c>
+      <c r="R36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>237</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="O38" t="s">
+        <v>233</v>
+      </c>
+      <c r="P38" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>233</v>
+      </c>
+      <c r="R38" t="s">
+        <v>233</v>
+      </c>
+      <c r="X38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>268</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>240</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" t="s">
-        <v>182</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="O41" t="s">
+        <v>234</v>
+      </c>
+      <c r="P41" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>269</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>238</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>245</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>270</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AG54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AW55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N38" t="s">
-        <v>193</v>
-      </c>
-      <c r="O38" t="s">
-        <v>193</v>
-      </c>
-      <c r="U38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV38" t="s">
+      <c r="AW56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AZ38" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>195</v>
+      <c r="AT63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O65" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>235</v>
+      </c>
+      <c r="R65" t="s">
+        <v>235</v>
+      </c>
+      <c r="X65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" t="s">
+        <v>224</v>
+      </c>
+      <c r="O66" t="s">
+        <v>236</v>
+      </c>
+      <c r="P66" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>236</v>
+      </c>
+      <c r="R66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O67" t="s">
+        <v>237</v>
+      </c>
+      <c r="P67" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>237</v>
+      </c>
+      <c r="R67" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/15128.xlsx
+++ b/icd_files/15128.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B933A4A-BE97-4810-85E6-1BBC5F1E139C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C39EE2-5686-42F0-BF7F-8178D350EB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="368">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -522,9 +522,15 @@
     <t>05-02</t>
   </si>
   <si>
+    <t>05-03</t>
+  </si>
+  <si>
     <t>05-04</t>
   </si>
   <si>
+    <t>05-05</t>
+  </si>
+  <si>
     <t>07-04</t>
   </si>
   <si>
@@ -558,27 +564,141 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Nadolol</t>
+  </si>
+  <si>
+    <t>Magnesium Oxide</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Erythromycin 0.5% Ophth Oint</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
     <t>Magnesium Sulfate</t>
   </si>
   <si>
-    <t>Potassium Chloride</t>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Erythromycin</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Syringe (IV Room)</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE HCl</t>
+  </si>
+  <si>
+    <t>Midazolam HCl</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Dolasetron Mesylate</t>
+  </si>
+  <si>
+    <t>Sodium Phosphate</t>
+  </si>
+  <si>
+    <t>Thiamine HCl</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Octreotide Acetate</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Sucralfate</t>
+  </si>
+  <si>
+    <t>Artificial Tears</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Simethicone</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>2.5 ml</t>
+  </si>
+  <si>
+    <t>0.6 ml</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
     <t>22:00</t>
   </si>
   <si>
+    <t>5-10 VIAL</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>30 ml</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
@@ -600,10 +720,25 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>20 CAP</t>
+  </si>
+  <si>
     <t>250 ml</t>
   </si>
   <si>
-    <t>20 CAP</t>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
   </si>
   <si>
     <t>04:00</t>
@@ -621,12 +756,66 @@
     <t>2 ml</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>4 ml</t>
   </si>
   <si>
     <t>3 ml</t>
   </si>
   <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>1-5 ml</t>
+  </si>
+  <si>
+    <t>0.5-2 VIAL</t>
+  </si>
+  <si>
+    <t>25-100 ml</t>
+  </si>
+  <si>
+    <t>20 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1-2 DBTL</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
+  </si>
+  <si>
+    <t>3 VIAL</t>
+  </si>
+  <si>
+    <t>80 VIAL</t>
+  </si>
+  <si>
+    <t>12.5 VIAL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
     <t>06:30</t>
   </si>
   <si>
@@ -639,13 +828,31 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
     <t>14:00</t>
   </si>
   <si>
+    <t>800 TAB</t>
+  </si>
+  <si>
     <t>60 CAP</t>
+  </si>
+  <si>
+    <t>0.5 TUBE</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3800,7 +4007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000000-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4702,7 +4909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000001-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5604,7 +5811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000002-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6533,7 +6740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000003-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7459,7 +7666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000004-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8076,7 +8283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000005-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8607,7 +8814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000006-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9141,7 +9348,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000007-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9672,7 +9879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-188E-4307-A4A7-6C8E283AE106}"/>
+              <c16:uniqueId val="{00000008-8042-4122-ACA0-5F992A4D9878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10115,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683A541F-E6CA-485F-AC54-285FBA26F86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A2D0B2-6039-4239-9445-53FA87EB96CB}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -10140,7 +10347,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10153,7 +10360,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10166,7 +10373,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10179,7 +10386,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10192,27 +10399,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10240,7 +10447,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10268,11 +10475,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10295,7 +10502,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10332,7 +10539,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10355,14 +10562,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10385,14 +10592,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10415,14 +10622,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10445,14 +10652,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10475,16 +10682,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10507,14 +10714,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10537,10 +10744,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10548,7 +10755,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10560,7 +10767,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10583,7 +10790,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10599,11 +10806,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10626,7 +10833,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10644,7 +10851,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10667,7 +10874,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10686,7 +10893,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10709,10 +10916,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10730,7 +10937,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10753,52 +10960,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10821,53 +11028,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10890,43 +11097,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10934,7 +11141,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10957,43 +11164,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -11001,7 +11208,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -11024,43 +11231,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -11068,7 +11275,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -11091,43 +11298,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -11135,7 +11342,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -11158,43 +11365,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11202,7 +11409,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11225,43 +11432,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11269,7 +11476,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11292,43 +11499,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11336,7 +11543,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11359,43 +11566,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11403,7 +11610,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11426,43 +11633,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11470,7 +11677,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11493,43 +11700,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11537,7 +11744,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11560,43 +11767,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11604,7 +11811,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11627,7 +11834,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11640,10 +11847,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11651,7 +11858,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11674,14 +11881,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11696,7 +11903,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11719,7 +11926,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11739,7 +11946,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11762,7 +11969,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11782,7 +11989,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11805,7 +12012,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11823,11 +12030,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11850,14 +12057,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11880,14 +12087,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11910,14 +12117,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11940,14 +12147,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11970,14 +12177,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -12000,14 +12207,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -12030,10 +12237,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -12050,7 +12257,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -12073,7 +12280,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -12091,7 +12298,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -12114,7 +12321,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -12132,7 +12339,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -12155,14 +12362,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12185,14 +12392,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12215,24 +12422,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12255,7 +12462,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12264,7 +12471,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12287,14 +12494,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12302,7 +12509,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12325,7 +12532,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12334,7 +12541,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12357,14 +12564,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12372,7 +12579,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12395,7 +12602,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12404,7 +12611,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12427,24 +12634,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12467,7 +12674,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12476,7 +12683,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12499,22 +12706,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12522,7 +12729,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12545,7 +12752,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12558,7 +12765,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12581,32 +12788,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12629,7 +12836,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12638,7 +12845,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12661,14 +12868,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12676,7 +12883,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12699,14 +12906,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12729,12 +12936,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12762,7 +12969,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12789,13 +12996,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12823,7 +13030,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12935,7 +13142,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12963,7 +13170,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12991,7 +13198,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -16517,13 +16724,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:CD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -16531,7 +16738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
@@ -16542,7 +16749,7 @@
         <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>159</v>
@@ -16569,7 +16776,7 @@
         <v>159</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>160</v>
@@ -16590,13 +16797,13 @@
         <v>160</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>161</v>
@@ -16608,70 +16815,70 @@
         <v>161</v>
       </c>
       <c r="AA31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="AW31" s="1" t="s">
         <v>169</v>
@@ -16683,249 +16890,402 @@
         <v>169</v>
       </c>
       <c r="AZ31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="CC31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="N32" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Q32" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="S32" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="T32" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="U32" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="V32" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="W32" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="X32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AA32" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="AB32" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="AC32" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="AD32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AE32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AG32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AH32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AI32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AJ32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AK32" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AL32" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AO32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AP32" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AQ32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AR32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AS32" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AT32" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AU32" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AV32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AW32" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AX32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AY32" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AZ32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BA32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BB32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BC32" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="BD32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>272</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>272</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35">
+        <v>179</v>
+      </c>
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
       </c>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
         <v>14</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
       </c>
       <c r="M35">
         <v>15</v>
       </c>
       <c r="N35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O35">
         <v>14</v>
       </c>
       <c r="P35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q35">
         <v>14</v>
       </c>
       <c r="R35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S35">
         <v>15</v>
       </c>
       <c r="T35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U35">
         <v>15</v>
@@ -16945,46 +17305,13 @@
       <c r="Z35">
         <v>15</v>
       </c>
-      <c r="AG35">
+      <c r="AA35">
         <v>15</v>
       </c>
-      <c r="AH35">
+      <c r="AB35">
         <v>15</v>
       </c>
-      <c r="AI35">
-        <v>15</v>
-      </c>
-      <c r="AJ35">
-        <v>15</v>
-      </c>
-      <c r="AK35">
-        <v>15</v>
-      </c>
-      <c r="AL35">
-        <v>15</v>
-      </c>
-      <c r="AM35">
-        <v>15</v>
-      </c>
-      <c r="AN35">
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <v>15</v>
-      </c>
-      <c r="AP35">
-        <v>15</v>
-      </c>
-      <c r="AR35">
-        <v>15</v>
-      </c>
-      <c r="AS35">
-        <v>15</v>
-      </c>
-      <c r="AT35">
-        <v>15</v>
-      </c>
-      <c r="AU35">
+      <c r="AC35">
         <v>15</v>
       </c>
       <c r="AW35">
@@ -16996,128 +17323,1398 @@
       <c r="AY35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="AZ35">
+        <v>15</v>
+      </c>
+      <c r="BA35">
+        <v>15</v>
+      </c>
+      <c r="BB35">
+        <v>15</v>
+      </c>
+      <c r="BC35">
+        <v>15</v>
+      </c>
+      <c r="BD35">
+        <v>15</v>
+      </c>
+      <c r="BE35">
+        <v>15</v>
+      </c>
+      <c r="BF35">
+        <v>15</v>
+      </c>
+      <c r="BG35">
+        <v>15</v>
+      </c>
+      <c r="BH35">
+        <v>15</v>
+      </c>
+      <c r="BI35">
+        <v>15</v>
+      </c>
+      <c r="BJ35">
+        <v>15</v>
+      </c>
+      <c r="BK35">
+        <v>15</v>
+      </c>
+      <c r="BL35">
+        <v>15</v>
+      </c>
+      <c r="BM35">
+        <v>15</v>
+      </c>
+      <c r="BN35">
+        <v>15</v>
+      </c>
+      <c r="BO35">
+        <v>15</v>
+      </c>
+      <c r="BQ35">
+        <v>15</v>
+      </c>
+      <c r="BR35">
+        <v>15</v>
+      </c>
+      <c r="BS35">
+        <v>15</v>
+      </c>
+      <c r="BT35">
+        <v>15</v>
+      </c>
+      <c r="BW35">
+        <v>15</v>
+      </c>
+      <c r="BX35">
+        <v>15</v>
+      </c>
+      <c r="BY35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>238</v>
+      </c>
+      <c r="R36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>237</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="O38" t="s">
+        <v>233</v>
+      </c>
+      <c r="P38" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>233</v>
+      </c>
+      <c r="R38" t="s">
+        <v>233</v>
+      </c>
+      <c r="X38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>268</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>240</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>232</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" t="s">
-        <v>182</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="O41" t="s">
+        <v>234</v>
+      </c>
+      <c r="P41" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>269</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>238</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>245</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>270</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AG54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AW55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N38" t="s">
-        <v>193</v>
-      </c>
-      <c r="O38" t="s">
-        <v>193</v>
-      </c>
-      <c r="U38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV38" t="s">
+      <c r="AW56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AZ38" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>195</v>
+      <c r="AT63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O65" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>235</v>
+      </c>
+      <c r="R65" t="s">
+        <v>235</v>
+      </c>
+      <c r="X65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" t="s">
+        <v>224</v>
+      </c>
+      <c r="O66" t="s">
+        <v>236</v>
+      </c>
+      <c r="P66" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>236</v>
+      </c>
+      <c r="R66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O67" t="s">
+        <v>237</v>
+      </c>
+      <c r="P67" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>237</v>
+      </c>
+      <c r="R67" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
